--- a/documents/simul_anneal.xlsx
+++ b/documents/simul_anneal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlefrancois-ext\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jlefrancois-ext\Desktop\temp\perso\zodiac_attack\zodiac\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9EB94A4-E559-44AC-A162-4426AC851B1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D173A1F-44DC-49A3-A7D6-EAAE13064EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27516" yWindow="-10500" windowWidth="24120" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,18 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>temp</t>
-  </si>
-  <si>
-    <t>delta</t>
   </si>
   <si>
     <t>ktemp</t>
   </si>
   <si>
-    <t>p</t>
+    <t>proba</t>
+  </si>
+  <si>
+    <t>delta (percent)</t>
   </si>
 </sst>
 </file>
@@ -354,704 +354,498 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>1000</v>
       </c>
       <c r="C6">
-        <f>$B$2</f>
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <f>EXP(-C6/($B$1*B6))</f>
-        <v>0.98019867330675525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+        <f>EXP(-$B$2/($B$1*B6))</f>
+        <v>0.97044553354850815</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>980</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C56" si="0">$B$2</f>
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <f t="shared" ref="D7:D55" si="1">EXP(-C7/($B$1*B7))</f>
-        <v>0.97979867385370434</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+        <f>EXP(-$B$2/($B$1*B7))</f>
+        <v>0.9698515650674856</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>960</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="1"/>
-        <v>0.97938218133124011</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+        <f t="shared" ref="C8:C56" si="0">EXP(-$B$2/($B$1*B8))</f>
+        <v>0.96923323447634413</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>940</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="1"/>
-        <v>0.97894815422496984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96858901167888223</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>920</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>0.9784954614449578</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96791723571806454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>900</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="1"/>
-        <v>0.97802287248460051</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.9672161004820059</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>880</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>0.97752904625299208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96648363849469754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>860</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="1"/>
-        <v>0.97701251836738967</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96571770248527389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>840</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0.97647168665224326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96491594437237005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>820</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="1"/>
-        <v>0.97590479454239221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0.96407579123054543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B16">
         <v>800</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <f t="shared" si="1"/>
-        <v>0.97530991202833262</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.96319441772082182</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17">
         <v>780</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="1"/>
-        <v>0.97468491370815213</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.96226871436325723</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18">
         <v>760</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>0.97402745342030128</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.96129525090118739</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19">
         <v>740</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="1"/>
-        <v>0.97333493481925271</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.96027023384793808</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20">
         <v>720</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D20">
-        <f t="shared" si="1"/>
-        <v>0.97260447711634834</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95918945710913817</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <v>700</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D21">
-        <f t="shared" si="1"/>
-        <v>0.9718328750329811</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95804824432639746</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22">
         <v>680</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>0.97101655179243718</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95684138127677942</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23">
         <v>660</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <f t="shared" si="1"/>
-        <v>0.97015150369663017</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.9555630362682842</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24">
         <v>640</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <f t="shared" si="1"/>
-        <v>0.96923323447634413</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95420666596918835</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25">
         <v>620</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D25">
-        <f t="shared" si="1"/>
-        <v>0.9682566771439105</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95276490346458675</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26">
         <v>600</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0.9672161004820059</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.95122942450071402</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27">
         <v>580</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="1"/>
-        <v>0.96610499652559645</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.94959078679345432</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28">
         <v>560</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D28">
-        <f t="shared" si="1"/>
-        <v>0.96491594437237005</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.94783823585465843</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29">
         <v>540</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D29">
-        <f t="shared" si="1"/>
-        <v>0.96364044430128626</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.94595946890676541</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30">
         <v>520</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>0.96226871436325723</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.94394034594118092</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31">
         <v>500</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D31">
-        <f t="shared" si="1"/>
-        <v>0.96078943915232318</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.94176453358424872</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32">
         <v>480</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <f t="shared" si="1"/>
-        <v>0.95918945710913817</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.93941306281347581</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>460</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D33">
-        <f t="shared" si="1"/>
-        <v>0.95745336806838088</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.93686377520009934</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>440</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D34">
-        <f t="shared" si="1"/>
-        <v>0.9555630362682842</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.93409062347794913</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>420</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D35">
-        <f t="shared" si="1"/>
-        <v>0.95349695483347674</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.93106277970402274</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>400</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <f t="shared" si="1"/>
-        <v>0.95122942450071402</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.92774348632855286</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>380</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D37">
-        <f t="shared" si="1"/>
-        <v>0.9487294800164372</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.92408855940517687</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>360</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <f t="shared" si="1"/>
-        <v>0.94595946890676541</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.92004441462932329</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>340</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D39">
-        <f t="shared" si="1"/>
-        <v>0.94287314385487497</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.91554542892365531</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>320</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <f t="shared" si="1"/>
-        <v>0.93941306281347581</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.91051036138003416</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B41">
         <v>300</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D41">
-        <f t="shared" si="1"/>
-        <v>0.93550698503161778</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.90483741803595952</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B42">
         <v>280</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D42">
-        <f t="shared" si="1"/>
-        <v>0.93106277970402274</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.89839732134807104</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B43">
         <v>260</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D43">
-        <f t="shared" si="1"/>
-        <v>0.92596107864231603</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.89102337669555631</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44">
         <v>240</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D44">
-        <f t="shared" si="1"/>
-        <v>0.92004441462932329</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.88249690258459546</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45">
         <v>220</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D45">
-        <f t="shared" si="1"/>
-        <v>0.9131007162822623</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.87252529286942382</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46">
         <v>200</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <f t="shared" si="1"/>
-        <v>0.90483741803595952</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47">
         <v>180</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D47">
-        <f t="shared" si="1"/>
-        <v>0.89483931681436979</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.84648172489061413</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48">
         <v>160</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="1"/>
-        <v>0.88249690258459546</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.82902911818040037</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49">
         <v>140</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D49">
-        <f t="shared" si="1"/>
-        <v>0.86687789975018159</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.8071177470053893</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50">
         <v>120</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D50">
-        <f t="shared" si="1"/>
-        <v>0.84648172489061413</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.77880078307140488</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51">
         <v>100</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D51">
-        <f t="shared" si="1"/>
-        <v>0.81873075307798182</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.74081822068171788</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52">
         <v>80</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D52">
-        <f t="shared" si="1"/>
-        <v>0.77880078307140488</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.68728927879097224</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53">
         <v>60</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D53">
-        <f t="shared" si="1"/>
-        <v>0.71653131057378927</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.60653065971263342</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54">
         <v>40</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D54">
-        <f t="shared" si="1"/>
-        <v>0.60653065971263342</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.47236655274101469</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55">
         <v>20</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <f t="shared" si="1"/>
-        <v>0.36787944117144233</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+        <v>0.22313016014842982</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56">
         <v>0</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="D56" t="e">
-        <f t="shared" ref="D56" si="2">-EXP(-C56/($B$1*B56))</f>
+      <c r="C56" t="e">
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
